--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E900D8D-73A0-4C85-A423-911A530558B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3517D-2752-4C52-A521-CA7FDAB60BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2970" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3315" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
+    <sheet name="Antrag" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Projektphase</t>
   </si>
@@ -64,13 +65,109 @@
   </si>
   <si>
     <t>Gesamtstunden</t>
+  </si>
+  <si>
+    <t>Projektplanung (Vorgehensweise und Pflichtenheft)</t>
+  </si>
+  <si>
+    <t>Detailplanung</t>
+  </si>
+  <si>
+    <t>Realisierung gemäß Sollkonzept</t>
+  </si>
+  <si>
+    <t>Testen und Fehlerbehebung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Vorlagen erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b) Abbildung und Diagramme erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c) Text erfassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d) Korrektur</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Vorbereitung Folien und Präsentationsdaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b) Vortrag mit Fachgespräch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Grundstrucktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Erstellen von Aufgaben durch Zufallszahlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Eingabe Ergebnis und Korrektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Benutzernamen eingeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Speichern der Aufgaben und Ergebnisse mit Benutzererkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Berechnung Anteile korrekter Ergebnisse mit Benutzererkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Erstellen von Schwierigkeitsstufen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Erkennen der Schwierigkeitsstufen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Anpassung der Aufgaben an die Schwierigkeitsstufen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b) Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Erstellen einer Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Probe Datenpflege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Verbindung mit dem Programm Zugriffs- und Schreibreche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Datenbanken erstellen und verbinden mit Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b) Themengebiet AI Einarbeitung, nutzung, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Erstellen des lernfähigen Programms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Daten und Berechnungen eintragen für die AI (Anfang 20 - 200 Datensätze)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Funktionsfähigkeit Prüfen, anpassen und Problemanalyse sowie Verbesserungsvorschläge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c) Datensicherung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d) Anpassung der Schwierigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e) AI basierte Aufgabenstellung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,19 +175,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -99,13 +250,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -124,6 +312,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4E35B99C-BB12-454F-B3C2-0F638EA9DA26}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{EFF0B99F-8296-4E6D-A7D1-8AC82D5942A4}" name="Geplant" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
+    <tableColumn id="2" xr3:uid="{8A33D039-FDA5-4163-A923-8E00E667195C}" name="Geplant" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -394,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,4 +682,296 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED727E-C0A6-489A-8DCC-3881C145D586}">
+  <dimension ref="A2:B38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <f>SUBTOTAL(109,Tabelle2[Geplant])</f>
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3517D-2752-4C52-A521-CA7FDAB60BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C5E84-0A81-458D-A40B-4CC1CC4FE861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="3315" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED727E-C0A6-489A-8DCC-3881C145D586}">
   <dimension ref="A2:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C5E84-0A81-458D-A40B-4CC1CC4FE861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048BB9CF-38F7-4F57-9C7A-FE3FB11C7C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3315" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
     <sheet name="Antrag" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,6 +263,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -285,13 +292,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED727E-C0A6-489A-8DCC-3881C145D586}">
   <dimension ref="A2:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048BB9CF-38F7-4F57-9C7A-FE3FB11C7C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30844D2B-7D47-4005-A6CC-BD8DCFE2629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
     <sheet name="Antrag" sheetId="2" r:id="rId2"/>
+    <sheet name="Projektabschnitt 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>Projektphase</t>
   </si>
@@ -161,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve"> e) AI basierte Aufgabenstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Speichern in einer Datei.txt</t>
   </si>
 </sst>
 </file>
@@ -261,7 +265,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -318,11 +353,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{8A33D039-FDA5-4163-A923-8E00E667195C}" name="Geplant" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:B39" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:B38" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
+    <tableColumn id="2" xr3:uid="{E4995326-A6B5-4CE8-A01E-7E78DEA81186}" name="Geplant" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED727E-C0A6-489A-8DCC-3881C145D586}">
   <dimension ref="A2:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,4 +1020,304 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C5FF7-63BF-4F7C-9E67-E750C8103010}">
+  <dimension ref="A2:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f>SUBTOTAL(109,Tabelle24[Geplant])</f>
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30844D2B-7D47-4005-A6CC-BD8DCFE2629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2A65F-11EE-4867-B690-4CCD3DDE1154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Projektphase</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t xml:space="preserve">  Speichern in einer Datei.txt</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Differenz</t>
   </si>
 </sst>
 </file>
@@ -254,13 +260,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -364,11 +371,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:B39" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:B38" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D39" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D38" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{E4995326-A6B5-4CE8-A01E-7E78DEA81186}" name="Geplant" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{4327C8FF-12CD-4C6D-BC93-9120CAA0F390}" name="Ist" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{4ABE1F42-6337-48E3-A559-5AD97F414AE5}" name="Differenz" totalsRowFunction="sum">
+      <calculatedColumnFormula>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1024,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C5FF7-63BF-4F7C-9E67-E750C8103010}">
-  <dimension ref="A2:B39"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,283 +1046,408 @@
     <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
       <c r="B37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39">
         <f>SUBTOTAL(109,Tabelle24[Geplant])</f>
         <v>224</v>
+      </c>
+      <c r="C39">
+        <f>SUBTOTAL(109,Tabelle24[Ist])</f>
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <f>SUBTOTAL(109,Tabelle24[Differenz])</f>
+        <v>223.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2A65F-11EE-4867-B690-4CCD3DDE1154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844264D2-E9B0-4205-9439-EB2DA77533EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A2:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,9 +1146,12 @@
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
       <c r="D11">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,9 +1161,12 @@
       <c r="B12">
         <v>1.5</v>
       </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
       <c r="D12">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,11 +1449,11 @@
       </c>
       <c r="C39">
         <f>SUBTOTAL(109,Tabelle24[Ist])</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D39">
         <f>SUBTOTAL(109,Tabelle24[Differenz])</f>
-        <v>223.5</v>
+        <v>222.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844264D2-E9B0-4205-9439-EB2DA77533EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B2F37-599D-41BE-8AF3-182D5A896F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,11 +1147,11 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,9 +1176,12 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,11 +1452,11 @@
       </c>
       <c r="C39">
         <f>SUBTOTAL(109,Tabelle24[Ist])</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <f>SUBTOTAL(109,Tabelle24[Differenz])</f>
-        <v>222.5</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B2F37-599D-41BE-8AF3-182D5A896F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B8BD8F-F4C5-42E3-A08A-0565D91235B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Projektphase</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Differenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c) Sonstige Themen (Nachbearbeitung, Auffrischung, …)</t>
   </si>
 </sst>
 </file>
@@ -371,8 +374,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D39" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D38" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{E4995326-A6B5-4CE8-A01E-7E78DEA81186}" name="Geplant" totalsRowFunction="sum"/>
@@ -1035,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C5FF7-63BF-4F7C-9E67-E750C8103010}">
-  <dimension ref="A2:D39"/>
+  <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,9 +1070,12 @@
       <c r="B3" s="2">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
       <c r="D3">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,66 +1109,67 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7">
+        <v>0.5</v>
       </c>
       <c r="D7">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>10</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
@@ -1171,51 +1178,54 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
         <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1227,65 +1237,65 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="D21">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -1297,166 +1307,181 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="D26">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="D29">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>20</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="D38">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f>SUBTOTAL(109,Tabelle24[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f>SUBTOTAL(109,Tabelle24[Ist])</f>
-        <v>3</v>
-      </c>
-      <c r="D39">
+        <v>11.5</v>
+      </c>
+      <c r="D40">
         <f>SUBTOTAL(109,Tabelle24[Differenz])</f>
-        <v>221</v>
+        <v>212.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B8BD8F-F4C5-42E3-A08A-0565D91235B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E10140-907F-43C2-90FF-7A485FD90DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4005" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
     <sheet name="Antrag" sheetId="2" r:id="rId2"/>
     <sheet name="Projektabschnitt 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Projektabschnitt 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t>Projektphase</t>
   </si>
@@ -275,7 +276,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -363,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -374,7 +406,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -382,6 +414,21 @@
     <tableColumn id="3" xr3:uid="{4327C8FF-12CD-4C6D-BC93-9120CAA0F390}" name="Ist" totalsRowFunction="sum"/>
     <tableColumn id="4" xr3:uid="{4ABE1F42-6337-48E3-A559-5AD97F414AE5}" name="Differenz" totalsRowFunction="sum">
       <calculatedColumnFormula>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D40" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FFC7A420-075D-4C78-902A-6EB93541D2AA}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
+    <tableColumn id="2" xr3:uid="{80BF3388-48C4-41A3-9239-B3091F6F405B}" name="Geplant" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{64124765-476F-4440-A4B7-5154D6EC861A}" name="Ist" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{DD6041FB-BBBD-4387-83FF-3C8FE51B6742}" name="Differenz" totalsRowFunction="sum">
+      <calculatedColumnFormula>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1040,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C5FF7-63BF-4F7C-9E67-E750C8103010}">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,11 +1246,11 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D14">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,11 +1524,467 @@
       </c>
       <c r="C40">
         <f>SUBTOTAL(109,Tabelle24[Ist])</f>
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <f>SUBTOTAL(109,Tabelle24[Differenz])</f>
-        <v>212.5</v>
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
+  <dimension ref="A2:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="D21">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>8.5</v>
+      </c>
+      <c r="D29">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <f>SUBTOTAL(109,Tabelle245[Geplant])</f>
+        <v>224</v>
+      </c>
+      <c r="C40">
+        <f>SUBTOTAL(109,Tabelle245[Ist])</f>
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E10140-907F-43C2-90FF-7A485FD90DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5955C4E8-32F3-4ABB-94EC-A7DC44D8C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C5FF7-63BF-4F7C-9E67-E750C8103010}">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,9 +1432,12 @@
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
       <c r="D32">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,9 +1512,12 @@
       <c r="B39">
         <v>10</v>
       </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
       <c r="D39">
         <f>Tabelle24[[#This Row],[Geplant]]-Tabelle24[[#This Row],[Ist]]</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,11 +1530,11 @@
       </c>
       <c r="C40">
         <f>SUBTOTAL(109,Tabelle24[Ist])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <f>SUBTOTAL(109,Tabelle24[Differenz])</f>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1543,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,9 +1894,12 @@
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
       <c r="D32">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,9 +1974,12 @@
       <c r="B39">
         <v>10</v>
       </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
       <c r="D39">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,11 +1992,11 @@
       </c>
       <c r="C40">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5955C4E8-32F3-4ABB-94EC-A7DC44D8C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CDC34E-B7DE-4675-A8D2-FAC46C076BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CDC34E-B7DE-4675-A8D2-FAC46C076BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13E76C9-9AE8-42F9-90E6-06FDF42E4BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,9 +1600,12 @@
       <c r="B5" s="5">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
       <c r="D5">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,11 +1641,11 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D8">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,11 +1995,11 @@
       </c>
       <c r="C40">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13E76C9-9AE8-42F9-90E6-06FDF42E4BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F5E8F-555B-4E02-B4FD-7BDE004BF8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1305" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Projektphase</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve"> c) Sonstige Themen (Nachbearbeitung, Auffrischung, …)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Erstellen einer Test-Datenbank</t>
   </si>
 </sst>
 </file>
@@ -421,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D40" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FFC7A420-075D-4C78-902A-6EB93541D2AA}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{80BF3388-48C4-41A3-9239-B3091F6F405B}" name="Geplant" totalsRowFunction="sum"/>
@@ -1547,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
-  <dimension ref="A2:D40"/>
+  <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,31 +1728,34 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>1.5</v>
       </c>
       <c r="D16">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="D17">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1761,65 +1767,65 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="D22">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>30</v>
@@ -1831,175 +1837,187 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="D30">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>19</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0.5</v>
-      </c>
-      <c r="D32">
-        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
       </c>
       <c r="D33">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f>SUBTOTAL(109,Tabelle245[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>16</v>
-      </c>
-      <c r="D40">
+        <v>17.5</v>
+      </c>
+      <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>208</v>
+        <v>206.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F5E8F-555B-4E02-B4FD-7BDE004BF8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6F177-5291-402E-BD6D-71B24467B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1305" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12180" yWindow="210" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t>Projektphase</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Erstellen einer Test-Datenbank</t>
+  </si>
+  <si>
+    <t>Projektplanung (Vorgehensweise, Lasten- Pflichtenheft und Projektantrag)</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1556,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,17 +1580,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,11 +2016,11 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>206.5</v>
+        <v>205.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6F177-5291-402E-BD6D-71B24467B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CC960-8608-402A-9D1A-2541F28FDFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12180" yWindow="210" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,11 +1647,11 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,9 +1751,12 @@
       <c r="B17">
         <v>12.5</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,11 +2019,11 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>205.5</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CC960-8608-402A-9D1A-2541F28FDFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CBBBEB-4B66-4871-9F48-8AE63A8D512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12180" yWindow="210" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1766,9 +1766,12 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
       <c r="D18">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,11 +2022,11 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>204</v>
+        <v>203.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Projektphasen.xlsx
+++ b/Documents/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CBBBEB-4B66-4871-9F48-8AE63A8D512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A604F21-21C6-4EA8-A695-8286A89893B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12180" yWindow="210" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,11 +1607,11 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,11 +1767,11 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="D18">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,11 +2005,11 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D40">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,11 +2022,11 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>203.5</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
